--- a/odometry-data.xlsx
+++ b/odometry-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clovel/Documents/Informatique/Programming/Kilometer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9819112-1110-EB49-A404-457B14B30175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C135736-51F0-DC40-BA25-BAB9AEACCEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odometry-data" sheetId="1" r:id="rId1"/>
+    <sheet name="work distance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +73,24 @@
   </si>
   <si>
     <t>Mean Km/year</t>
+  </si>
+  <si>
+    <t>Kilometres aller</t>
+  </si>
+  <si>
+    <t>Jours ouvrés</t>
+  </si>
+  <si>
+    <t>jours feriés</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>RTT</t>
+  </si>
+  <si>
+    <t>Kilometres par an</t>
   </si>
 </sst>
 </file>
@@ -4316,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4563,4 +4582,67 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72828D6D-BA01-A94E-A905-1F6D29131D9F}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>(B2-C2-D2-E2)*2*A2</f>
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <f>(20*12-10-25-10)*40</f>
+        <v>7800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>